--- a/仕様書/エレメンタル_仕様書_キャラクター.xlsx
+++ b/仕様書/エレメンタル_仕様書_キャラクター.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="22935" windowHeight="9795" firstSheet="1" activeTab="9"/>
+    <workbookView windowWidth="22935" windowHeight="9795"/>
   </bookViews>
   <sheets>
     <sheet name="名称" sheetId="1" r:id="rId1"/>
@@ -36,10 +36,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -57,74 +57,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -140,14 +91,28 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -155,7 +120,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -163,7 +136,28 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -177,17 +171,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -196,6 +182,20 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -210,7 +210,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -222,7 +264,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -234,31 +378,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -270,127 +390,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -597,6 +597,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -614,8 +629,23 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -637,50 +667,20 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -701,145 +701,145 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1183,7 +1183,7 @@
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>1</a:t>
+            <a:t>2</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
@@ -14964,7 +14964,7 @@
   <sheetPr/>
   <dimension ref="B7:AR32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
       <selection activeCell="X2" sqref="X2"/>
     </sheetView>
   </sheetViews>
@@ -16074,7 +16074,7 @@
   <sheetPr/>
   <dimension ref="B4:AJ21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AJ5" sqref="AJ5"/>
     </sheetView>
   </sheetViews>

--- a/仕様書/エレメンタル_仕様書_キャラクター.xlsx
+++ b/仕様書/エレメンタル_仕様書_キャラクター.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="22935" windowHeight="9795"/>
+    <workbookView windowWidth="22935" windowHeight="9795" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="名称" sheetId="1" r:id="rId1"/>
@@ -15,15 +15,17 @@
     <sheet name="オーラ" sheetId="6" r:id="rId6"/>
     <sheet name="切り替え" sheetId="7" r:id="rId7"/>
     <sheet name="攻撃" sheetId="8" r:id="rId8"/>
-    <sheet name="Sheet1 (3)" sheetId="9" r:id="rId9"/>
-    <sheet name="プレイヤー" sheetId="10" r:id="rId10"/>
+    <sheet name="プレイヤー" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3">
+  <si>
+    <t>優先度は低め</t>
+  </si>
   <si>
     <t>十字キーの右を押すと、キャラクターは右に動く</t>
   </si>
@@ -36,10 +38,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -50,23 +52,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -75,23 +62,51 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -120,54 +135,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -180,8 +150,24 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -189,6 +175,22 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -222,139 +224,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -372,7 +248,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -384,13 +296,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -597,16 +599,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -629,7 +631,42 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -650,41 +687,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -698,152 +700,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -894,6 +896,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -1432,110 +1437,6 @@
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>オーラ</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>9526</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>14263</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="962025" y="3061970"/>
-          <a:ext cx="381000" cy="548005"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>66674</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>19049</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="円形吹き出し 2"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1018540" y="2533650"/>
-          <a:ext cx="904875" cy="409575"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeEllipseCallout">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>主人公</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -14584,17 +14485,22 @@
 
 <file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>28085</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>14263</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="180975" cy="343389"/>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPr id="2" name="図 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -14613,8 +14519,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2495550" y="1361440"/>
-          <a:ext cx="180975" cy="342900"/>
+          <a:off x="962025" y="3061970"/>
+          <a:ext cx="381000" cy="548005"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14622,7 +14528,62 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>66674</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>19049</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="円形吹き出し 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1018540" y="2533650"/>
+          <a:ext cx="904875" cy="409575"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeEllipseCallout">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>主人公</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -14964,7 +14925,7 @@
   <sheetPr/>
   <dimension ref="B7:AR32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="X2" sqref="X2"/>
     </sheetView>
   </sheetViews>
@@ -16069,648 +16030,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="B4:AJ21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AJ5" sqref="AJ5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="15" customHeight="1"/>
-  <sheetData>
-    <row r="4" customHeight="1" spans="2:36">
-      <c r="B4" s="1"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
-      <c r="W4" s="2"/>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
-      <c r="Z4" s="2"/>
-      <c r="AA4" s="2"/>
-      <c r="AB4" s="2"/>
-      <c r="AC4" s="2"/>
-      <c r="AD4" s="2"/>
-      <c r="AE4" s="2"/>
-      <c r="AF4" s="2"/>
-      <c r="AG4" s="9"/>
-      <c r="AJ4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" customHeight="1" spans="2:36">
-      <c r="B5" s="3"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
-      <c r="U5" s="4"/>
-      <c r="V5" s="4"/>
-      <c r="W5" s="4"/>
-      <c r="X5" s="4"/>
-      <c r="Y5" s="4"/>
-      <c r="Z5" s="4"/>
-      <c r="AA5" s="4"/>
-      <c r="AB5" s="4"/>
-      <c r="AC5" s="4"/>
-      <c r="AD5" s="4"/>
-      <c r="AE5" s="4"/>
-      <c r="AF5" s="4"/>
-      <c r="AG5" s="10"/>
-      <c r="AJ5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" customHeight="1" spans="2:33">
-      <c r="B6" s="3"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
-      <c r="U6" s="4"/>
-      <c r="V6" s="4"/>
-      <c r="W6" s="4"/>
-      <c r="X6" s="4"/>
-      <c r="Y6" s="4"/>
-      <c r="Z6" s="4"/>
-      <c r="AA6" s="4"/>
-      <c r="AB6" s="4"/>
-      <c r="AC6" s="4"/>
-      <c r="AD6" s="4"/>
-      <c r="AE6" s="4"/>
-      <c r="AF6" s="4"/>
-      <c r="AG6" s="10"/>
-    </row>
-    <row r="7" customHeight="1" spans="2:33">
-      <c r="B7" s="3"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
-      <c r="U7" s="4"/>
-      <c r="V7" s="4"/>
-      <c r="W7" s="4"/>
-      <c r="X7" s="4"/>
-      <c r="Y7" s="4"/>
-      <c r="Z7" s="4"/>
-      <c r="AA7" s="4"/>
-      <c r="AB7" s="4"/>
-      <c r="AC7" s="4"/>
-      <c r="AD7" s="4"/>
-      <c r="AE7" s="4"/>
-      <c r="AF7" s="4"/>
-      <c r="AG7" s="10"/>
-    </row>
-    <row r="8" customHeight="1" spans="2:33">
-      <c r="B8" s="3"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="4"/>
-      <c r="V8" s="4"/>
-      <c r="W8" s="4"/>
-      <c r="X8" s="4"/>
-      <c r="Y8" s="4"/>
-      <c r="Z8" s="4"/>
-      <c r="AA8" s="4"/>
-      <c r="AB8" s="4"/>
-      <c r="AC8" s="4"/>
-      <c r="AD8" s="4"/>
-      <c r="AE8" s="4"/>
-      <c r="AF8" s="4"/>
-      <c r="AG8" s="10"/>
-    </row>
-    <row r="9" customHeight="1" spans="2:33">
-      <c r="B9" s="3"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="4"/>
-      <c r="T9" s="4"/>
-      <c r="U9" s="4"/>
-      <c r="V9" s="4"/>
-      <c r="W9" s="4"/>
-      <c r="X9" s="4"/>
-      <c r="Y9" s="4"/>
-      <c r="Z9" s="4"/>
-      <c r="AA9" s="4"/>
-      <c r="AB9" s="4"/>
-      <c r="AC9" s="4"/>
-      <c r="AD9" s="4"/>
-      <c r="AE9" s="4"/>
-      <c r="AF9" s="4"/>
-      <c r="AG9" s="10"/>
-    </row>
-    <row r="10" customHeight="1" spans="2:33">
-      <c r="B10" s="3"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
-      <c r="S10" s="4"/>
-      <c r="T10" s="4"/>
-      <c r="U10" s="4"/>
-      <c r="V10" s="4"/>
-      <c r="W10" s="4"/>
-      <c r="X10" s="4"/>
-      <c r="Y10" s="4"/>
-      <c r="Z10" s="4"/>
-      <c r="AA10" s="4"/>
-      <c r="AB10" s="4"/>
-      <c r="AC10" s="4"/>
-      <c r="AD10" s="4"/>
-      <c r="AE10" s="4"/>
-      <c r="AF10" s="4"/>
-      <c r="AG10" s="10"/>
-    </row>
-    <row r="11" customHeight="1" spans="2:33">
-      <c r="B11" s="3"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
-      <c r="S11" s="4"/>
-      <c r="T11" s="4"/>
-      <c r="U11" s="4"/>
-      <c r="V11" s="4"/>
-      <c r="W11" s="4"/>
-      <c r="X11" s="4"/>
-      <c r="Y11" s="4"/>
-      <c r="Z11" s="4"/>
-      <c r="AA11" s="4"/>
-      <c r="AB11" s="4"/>
-      <c r="AC11" s="4"/>
-      <c r="AD11" s="4"/>
-      <c r="AE11" s="4"/>
-      <c r="AF11" s="4"/>
-      <c r="AG11" s="10"/>
-    </row>
-    <row r="12" customHeight="1" spans="2:33">
-      <c r="B12" s="3"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
-      <c r="S12" s="4"/>
-      <c r="T12" s="4"/>
-      <c r="U12" s="4"/>
-      <c r="V12" s="4"/>
-      <c r="W12" s="4"/>
-      <c r="X12" s="4"/>
-      <c r="Y12" s="4"/>
-      <c r="Z12" s="4"/>
-      <c r="AA12" s="4"/>
-      <c r="AB12" s="4"/>
-      <c r="AC12" s="4"/>
-      <c r="AD12" s="4"/>
-      <c r="AE12" s="4"/>
-      <c r="AF12" s="4"/>
-      <c r="AG12" s="10"/>
-    </row>
-    <row r="13" customHeight="1" spans="2:33">
-      <c r="B13" s="3"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
-      <c r="S13" s="4"/>
-      <c r="T13" s="4"/>
-      <c r="U13" s="4"/>
-      <c r="V13" s="4"/>
-      <c r="W13" s="4"/>
-      <c r="X13" s="4"/>
-      <c r="Y13" s="4"/>
-      <c r="Z13" s="4"/>
-      <c r="AA13" s="4"/>
-      <c r="AB13" s="4"/>
-      <c r="AC13" s="4"/>
-      <c r="AD13" s="4"/>
-      <c r="AE13" s="4"/>
-      <c r="AF13" s="4"/>
-      <c r="AG13" s="10"/>
-    </row>
-    <row r="14" customHeight="1" spans="2:33">
-      <c r="B14" s="3"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="4"/>
-      <c r="U14" s="4"/>
-      <c r="V14" s="4"/>
-      <c r="W14" s="4"/>
-      <c r="X14" s="4"/>
-      <c r="Y14" s="4"/>
-      <c r="Z14" s="4"/>
-      <c r="AA14" s="4"/>
-      <c r="AB14" s="4"/>
-      <c r="AC14" s="4"/>
-      <c r="AD14" s="4"/>
-      <c r="AE14" s="4"/>
-      <c r="AF14" s="4"/>
-      <c r="AG14" s="10"/>
-    </row>
-    <row r="15" customHeight="1" spans="2:33">
-      <c r="B15" s="3"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="4"/>
-      <c r="U15" s="4"/>
-      <c r="V15" s="4"/>
-      <c r="W15" s="4"/>
-      <c r="X15" s="4"/>
-      <c r="Y15" s="4"/>
-      <c r="Z15" s="4"/>
-      <c r="AA15" s="4"/>
-      <c r="AB15" s="4"/>
-      <c r="AC15" s="4"/>
-      <c r="AD15" s="4"/>
-      <c r="AE15" s="4"/>
-      <c r="AF15" s="4"/>
-      <c r="AG15" s="10"/>
-    </row>
-    <row r="16" customHeight="1" spans="2:33">
-      <c r="B16" s="3"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="4"/>
-      <c r="S16" s="4"/>
-      <c r="T16" s="4"/>
-      <c r="U16" s="4"/>
-      <c r="V16" s="4"/>
-      <c r="W16" s="4"/>
-      <c r="X16" s="4"/>
-      <c r="Y16" s="4"/>
-      <c r="Z16" s="4"/>
-      <c r="AA16" s="4"/>
-      <c r="AB16" s="4"/>
-      <c r="AC16" s="4"/>
-      <c r="AD16" s="4"/>
-      <c r="AE16" s="4"/>
-      <c r="AF16" s="4"/>
-      <c r="AG16" s="10"/>
-    </row>
-    <row r="17" customHeight="1" spans="2:33">
-      <c r="B17" s="3"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="4"/>
-      <c r="S17" s="4"/>
-      <c r="T17" s="4"/>
-      <c r="U17" s="4"/>
-      <c r="V17" s="4"/>
-      <c r="W17" s="4"/>
-      <c r="X17" s="4"/>
-      <c r="Y17" s="4"/>
-      <c r="Z17" s="4"/>
-      <c r="AA17" s="4"/>
-      <c r="AB17" s="4"/>
-      <c r="AC17" s="4"/>
-      <c r="AD17" s="4"/>
-      <c r="AE17" s="4"/>
-      <c r="AF17" s="4"/>
-      <c r="AG17" s="10"/>
-    </row>
-    <row r="18" customHeight="1" spans="2:33">
-      <c r="B18" s="3"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="4"/>
-      <c r="S18" s="4"/>
-      <c r="T18" s="4"/>
-      <c r="U18" s="4"/>
-      <c r="V18" s="4"/>
-      <c r="W18" s="4"/>
-      <c r="X18" s="4"/>
-      <c r="Y18" s="4"/>
-      <c r="Z18" s="4"/>
-      <c r="AA18" s="4"/>
-      <c r="AB18" s="4"/>
-      <c r="AC18" s="4"/>
-      <c r="AD18" s="4"/>
-      <c r="AE18" s="4"/>
-      <c r="AF18" s="4"/>
-      <c r="AG18" s="10"/>
-    </row>
-    <row r="19" customHeight="1" spans="2:33">
-      <c r="B19" s="3"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="4"/>
-      <c r="S19" s="4"/>
-      <c r="T19" s="4"/>
-      <c r="U19" s="4"/>
-      <c r="V19" s="4"/>
-      <c r="W19" s="4"/>
-      <c r="X19" s="4"/>
-      <c r="Y19" s="4"/>
-      <c r="Z19" s="4"/>
-      <c r="AA19" s="4"/>
-      <c r="AB19" s="4"/>
-      <c r="AC19" s="4"/>
-      <c r="AD19" s="4"/>
-      <c r="AE19" s="4"/>
-      <c r="AF19" s="4"/>
-      <c r="AG19" s="10"/>
-    </row>
-    <row r="20" customHeight="1" spans="2:33">
-      <c r="B20" s="5"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
-      <c r="O20" s="6"/>
-      <c r="P20" s="6"/>
-      <c r="Q20" s="6"/>
-      <c r="R20" s="6"/>
-      <c r="S20" s="6"/>
-      <c r="T20" s="6"/>
-      <c r="U20" s="6"/>
-      <c r="V20" s="6"/>
-      <c r="W20" s="6"/>
-      <c r="X20" s="6"/>
-      <c r="Y20" s="6"/>
-      <c r="Z20" s="6"/>
-      <c r="AA20" s="6"/>
-      <c r="AB20" s="6"/>
-      <c r="AC20" s="6"/>
-      <c r="AD20" s="6"/>
-      <c r="AE20" s="6"/>
-      <c r="AF20" s="6"/>
-      <c r="AG20" s="11"/>
-    </row>
-    <row r="21" customHeight="1" spans="2:33">
-      <c r="B21" s="7"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="8"/>
-      <c r="P21" s="8"/>
-      <c r="Q21" s="8"/>
-      <c r="R21" s="8"/>
-      <c r="S21" s="8"/>
-      <c r="T21" s="8"/>
-      <c r="U21" s="8"/>
-      <c r="V21" s="8"/>
-      <c r="W21" s="8"/>
-      <c r="X21" s="8"/>
-      <c r="Y21" s="8"/>
-      <c r="Z21" s="8"/>
-      <c r="AA21" s="8"/>
-      <c r="AB21" s="8"/>
-      <c r="AC21" s="8"/>
-      <c r="AD21" s="8"/>
-      <c r="AE21" s="8"/>
-      <c r="AF21" s="8"/>
-      <c r="AG21" s="12"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="B3:AR106"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="Y21" sqref="Y21"/>
     </sheetView>
   </sheetViews>
@@ -20453,7 +19778,7 @@
   <sheetPr/>
   <dimension ref="C1:AI50"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A39" workbookViewId="0">
       <selection activeCell="M42" sqref="M42"/>
     </sheetView>
   </sheetViews>
@@ -21991,7 +21316,7 @@
   <sheetPr/>
   <dimension ref="C2:AQ107"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
+    <sheetView topLeftCell="A101" workbookViewId="0">
       <selection activeCell="M97" sqref="M97"/>
     </sheetView>
   </sheetViews>
@@ -25555,7 +24880,7 @@
   <sheetPr/>
   <dimension ref="C3:AS51"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="AN34" sqref="AN34"/>
     </sheetView>
   </sheetViews>
@@ -26046,10 +25371,10 @@
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="19"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="20"/>
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
@@ -27064,10 +26389,10 @@
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
-      <c r="I39" s="17"/>
-      <c r="J39" s="18"/>
-      <c r="K39" s="18"/>
-      <c r="L39" s="19"/>
+      <c r="I39" s="18"/>
+      <c r="J39" s="19"/>
+      <c r="K39" s="19"/>
+      <c r="L39" s="20"/>
       <c r="M39" s="4"/>
       <c r="N39" s="4"/>
       <c r="O39" s="4"/>
@@ -27625,7 +26950,7 @@
   <sheetPr/>
   <dimension ref="B6:AC52"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="X39" sqref="X39"/>
     </sheetView>
   </sheetViews>
@@ -28863,14 +28188,25 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="B2:Z50"/>
+  <dimension ref="B1:Z50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AC22" sqref="AC22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="15" customHeight="1"/>
   <sheetData>
+    <row r="1" customHeight="1" spans="4:10">
+      <c r="D1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+    </row>
     <row r="2" customHeight="1" spans="2:26">
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -30016,6 +29352,9 @@
       <c r="X50" s="4"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D1:J1"/>
+  </mergeCells>
   <printOptions headings="1"/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -31106,14 +30445,633 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="B4:AJ21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+      <selection activeCell="AJ9" sqref="AJ9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="15" customHeight="1"/>
-  <sheetData/>
+  <sheetData>
+    <row r="4" customHeight="1" spans="2:36">
+      <c r="B4" s="1"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2"/>
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="2"/>
+      <c r="AC4" s="2"/>
+      <c r="AD4" s="2"/>
+      <c r="AE4" s="2"/>
+      <c r="AF4" s="2"/>
+      <c r="AG4" s="9"/>
+      <c r="AJ4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="2:36">
+      <c r="B5" s="3"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="4"/>
+      <c r="Y5" s="4"/>
+      <c r="Z5" s="4"/>
+      <c r="AA5" s="4"/>
+      <c r="AB5" s="4"/>
+      <c r="AC5" s="4"/>
+      <c r="AD5" s="4"/>
+      <c r="AE5" s="4"/>
+      <c r="AF5" s="4"/>
+      <c r="AG5" s="10"/>
+      <c r="AJ5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="2:33">
+      <c r="B6" s="3"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+      <c r="X6" s="4"/>
+      <c r="Y6" s="4"/>
+      <c r="Z6" s="4"/>
+      <c r="AA6" s="4"/>
+      <c r="AB6" s="4"/>
+      <c r="AC6" s="4"/>
+      <c r="AD6" s="4"/>
+      <c r="AE6" s="4"/>
+      <c r="AF6" s="4"/>
+      <c r="AG6" s="10"/>
+    </row>
+    <row r="7" customHeight="1" spans="2:33">
+      <c r="B7" s="3"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="4"/>
+      <c r="Z7" s="4"/>
+      <c r="AA7" s="4"/>
+      <c r="AB7" s="4"/>
+      <c r="AC7" s="4"/>
+      <c r="AD7" s="4"/>
+      <c r="AE7" s="4"/>
+      <c r="AF7" s="4"/>
+      <c r="AG7" s="10"/>
+    </row>
+    <row r="8" customHeight="1" spans="2:33">
+      <c r="B8" s="3"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4"/>
+      <c r="X8" s="4"/>
+      <c r="Y8" s="4"/>
+      <c r="Z8" s="4"/>
+      <c r="AA8" s="4"/>
+      <c r="AB8" s="4"/>
+      <c r="AC8" s="4"/>
+      <c r="AD8" s="4"/>
+      <c r="AE8" s="4"/>
+      <c r="AF8" s="4"/>
+      <c r="AG8" s="10"/>
+    </row>
+    <row r="9" customHeight="1" spans="2:33">
+      <c r="B9" s="3"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4"/>
+      <c r="X9" s="4"/>
+      <c r="Y9" s="4"/>
+      <c r="Z9" s="4"/>
+      <c r="AA9" s="4"/>
+      <c r="AB9" s="4"/>
+      <c r="AC9" s="4"/>
+      <c r="AD9" s="4"/>
+      <c r="AE9" s="4"/>
+      <c r="AF9" s="4"/>
+      <c r="AG9" s="10"/>
+    </row>
+    <row r="10" customHeight="1" spans="2:33">
+      <c r="B10" s="3"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="4"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="4"/>
+      <c r="X10" s="4"/>
+      <c r="Y10" s="4"/>
+      <c r="Z10" s="4"/>
+      <c r="AA10" s="4"/>
+      <c r="AB10" s="4"/>
+      <c r="AC10" s="4"/>
+      <c r="AD10" s="4"/>
+      <c r="AE10" s="4"/>
+      <c r="AF10" s="4"/>
+      <c r="AG10" s="10"/>
+    </row>
+    <row r="11" customHeight="1" spans="2:33">
+      <c r="B11" s="3"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4"/>
+      <c r="X11" s="4"/>
+      <c r="Y11" s="4"/>
+      <c r="Z11" s="4"/>
+      <c r="AA11" s="4"/>
+      <c r="AB11" s="4"/>
+      <c r="AC11" s="4"/>
+      <c r="AD11" s="4"/>
+      <c r="AE11" s="4"/>
+      <c r="AF11" s="4"/>
+      <c r="AG11" s="10"/>
+    </row>
+    <row r="12" customHeight="1" spans="2:33">
+      <c r="B12" s="3"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="4"/>
+      <c r="X12" s="4"/>
+      <c r="Y12" s="4"/>
+      <c r="Z12" s="4"/>
+      <c r="AA12" s="4"/>
+      <c r="AB12" s="4"/>
+      <c r="AC12" s="4"/>
+      <c r="AD12" s="4"/>
+      <c r="AE12" s="4"/>
+      <c r="AF12" s="4"/>
+      <c r="AG12" s="10"/>
+    </row>
+    <row r="13" customHeight="1" spans="2:33">
+      <c r="B13" s="3"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="4"/>
+      <c r="V13" s="4"/>
+      <c r="W13" s="4"/>
+      <c r="X13" s="4"/>
+      <c r="Y13" s="4"/>
+      <c r="Z13" s="4"/>
+      <c r="AA13" s="4"/>
+      <c r="AB13" s="4"/>
+      <c r="AC13" s="4"/>
+      <c r="AD13" s="4"/>
+      <c r="AE13" s="4"/>
+      <c r="AF13" s="4"/>
+      <c r="AG13" s="10"/>
+    </row>
+    <row r="14" customHeight="1" spans="2:33">
+      <c r="B14" s="3"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="4"/>
+      <c r="W14" s="4"/>
+      <c r="X14" s="4"/>
+      <c r="Y14" s="4"/>
+      <c r="Z14" s="4"/>
+      <c r="AA14" s="4"/>
+      <c r="AB14" s="4"/>
+      <c r="AC14" s="4"/>
+      <c r="AD14" s="4"/>
+      <c r="AE14" s="4"/>
+      <c r="AF14" s="4"/>
+      <c r="AG14" s="10"/>
+    </row>
+    <row r="15" customHeight="1" spans="2:33">
+      <c r="B15" s="3"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="4"/>
+      <c r="W15" s="4"/>
+      <c r="X15" s="4"/>
+      <c r="Y15" s="4"/>
+      <c r="Z15" s="4"/>
+      <c r="AA15" s="4"/>
+      <c r="AB15" s="4"/>
+      <c r="AC15" s="4"/>
+      <c r="AD15" s="4"/>
+      <c r="AE15" s="4"/>
+      <c r="AF15" s="4"/>
+      <c r="AG15" s="10"/>
+    </row>
+    <row r="16" customHeight="1" spans="2:33">
+      <c r="B16" s="3"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="4"/>
+      <c r="U16" s="4"/>
+      <c r="V16" s="4"/>
+      <c r="W16" s="4"/>
+      <c r="X16" s="4"/>
+      <c r="Y16" s="4"/>
+      <c r="Z16" s="4"/>
+      <c r="AA16" s="4"/>
+      <c r="AB16" s="4"/>
+      <c r="AC16" s="4"/>
+      <c r="AD16" s="4"/>
+      <c r="AE16" s="4"/>
+      <c r="AF16" s="4"/>
+      <c r="AG16" s="10"/>
+    </row>
+    <row r="17" customHeight="1" spans="2:33">
+      <c r="B17" s="3"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="4"/>
+      <c r="U17" s="4"/>
+      <c r="V17" s="4"/>
+      <c r="W17" s="4"/>
+      <c r="X17" s="4"/>
+      <c r="Y17" s="4"/>
+      <c r="Z17" s="4"/>
+      <c r="AA17" s="4"/>
+      <c r="AB17" s="4"/>
+      <c r="AC17" s="4"/>
+      <c r="AD17" s="4"/>
+      <c r="AE17" s="4"/>
+      <c r="AF17" s="4"/>
+      <c r="AG17" s="10"/>
+    </row>
+    <row r="18" customHeight="1" spans="2:33">
+      <c r="B18" s="3"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="4"/>
+      <c r="V18" s="4"/>
+      <c r="W18" s="4"/>
+      <c r="X18" s="4"/>
+      <c r="Y18" s="4"/>
+      <c r="Z18" s="4"/>
+      <c r="AA18" s="4"/>
+      <c r="AB18" s="4"/>
+      <c r="AC18" s="4"/>
+      <c r="AD18" s="4"/>
+      <c r="AE18" s="4"/>
+      <c r="AF18" s="4"/>
+      <c r="AG18" s="10"/>
+    </row>
+    <row r="19" customHeight="1" spans="2:33">
+      <c r="B19" s="3"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="4"/>
+      <c r="U19" s="4"/>
+      <c r="V19" s="4"/>
+      <c r="W19" s="4"/>
+      <c r="X19" s="4"/>
+      <c r="Y19" s="4"/>
+      <c r="Z19" s="4"/>
+      <c r="AA19" s="4"/>
+      <c r="AB19" s="4"/>
+      <c r="AC19" s="4"/>
+      <c r="AD19" s="4"/>
+      <c r="AE19" s="4"/>
+      <c r="AF19" s="4"/>
+      <c r="AG19" s="10"/>
+    </row>
+    <row r="20" customHeight="1" spans="2:33">
+      <c r="B20" s="5"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="6"/>
+      <c r="S20" s="6"/>
+      <c r="T20" s="6"/>
+      <c r="U20" s="6"/>
+      <c r="V20" s="6"/>
+      <c r="W20" s="6"/>
+      <c r="X20" s="6"/>
+      <c r="Y20" s="6"/>
+      <c r="Z20" s="6"/>
+      <c r="AA20" s="6"/>
+      <c r="AB20" s="6"/>
+      <c r="AC20" s="6"/>
+      <c r="AD20" s="6"/>
+      <c r="AE20" s="6"/>
+      <c r="AF20" s="6"/>
+      <c r="AG20" s="11"/>
+    </row>
+    <row r="21" customHeight="1" spans="2:33">
+      <c r="B21" s="7"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="8"/>
+      <c r="R21" s="8"/>
+      <c r="S21" s="8"/>
+      <c r="T21" s="8"/>
+      <c r="U21" s="8"/>
+      <c r="V21" s="8"/>
+      <c r="W21" s="8"/>
+      <c r="X21" s="8"/>
+      <c r="Y21" s="8"/>
+      <c r="Z21" s="8"/>
+      <c r="AA21" s="8"/>
+      <c r="AB21" s="8"/>
+      <c r="AC21" s="8"/>
+      <c r="AD21" s="8"/>
+      <c r="AE21" s="8"/>
+      <c r="AF21" s="8"/>
+      <c r="AG21" s="12"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
